--- a/Check.xlsx
+++ b/Check.xlsx
@@ -33,18 +33,12 @@
     <t>1. Установка, запуск, авторизация, удаление</t>
   </si>
   <si>
-    <t>1. Корректность сборки и установки приложения из Android Studio, появление необходимых иконок в разделе Приложения.</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
     <t>3. Аутентификация/Авторизация пользователя</t>
   </si>
   <si>
-    <t>4. Корректное удаление приложения с устройства Android и Apple (без остаточных артефактов - иконок, папок, файлов и пр.)</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>5. Функционал. Страница 'О приложении'</t>
   </si>
   <si>
-    <t>1. Корректные внешние ссылки</t>
-  </si>
-  <si>
     <t>6. Интерфейс. Локализация и системный масштаб</t>
   </si>
   <si>
@@ -132,7 +123,16 @@
     <t>3. При отключении/подключении провода питания не должно быть никакой реакции и сбоев в работе</t>
   </si>
   <si>
-    <t>2. Корректный запуск (без зависаний и крашей) приложения, отображение заставки</t>
+    <t>1.Правильность сборки и установки приложения из Android Studio, появление необходимых иконок в разделе Приложения.</t>
+  </si>
+  <si>
+    <t>2. Запуск (без зависаний и крашей) приложения, отображение заставки</t>
+  </si>
+  <si>
+    <t>4. Удаление приложения с устройства Android и Apple (без остаточных артефактов - иконок, папок, файлов и пр.)</t>
+  </si>
+  <si>
+    <t>1. Правильность внешние ссылки</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -558,258 +558,258 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
